--- a/000 BASE GENERAL 2022/Colores.xlsx
+++ b/000 BASE GENERAL 2022/Colores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 BASE GENERAL 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DEDA9-9E15-4C98-B86E-CC1C43BE7C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30BBCED-2296-4D01-95E3-166D5F624B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5772334-57CC-47E5-83C1-1A5061086F4D}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Área Protegida</t>
   </si>
   <si>
-    <t>Cuerpo Agua</t>
-  </si>
-  <si>
     <t>Glaciar</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>#FF643F</t>
+  </si>
+  <si>
+    <t>Cuerpo de Agua</t>
   </si>
 </sst>
 </file>
@@ -522,12 +522,12 @@
   <dimension ref="B4:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -574,31 +574,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/000 BASE GENERAL 2022/Colores.xlsx
+++ b/000 BASE GENERAL 2022/Colores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 BASE GENERAL 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30BBCED-2296-4D01-95E3-166D5F624B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138EEB14-0247-4AA3-889A-D8698614002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5772334-57CC-47E5-83C1-1A5061086F4D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>Escala</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Glaciar</t>
   </si>
   <si>
-    <t>Volcán</t>
-  </si>
-  <si>
     <t>Contenido</t>
   </si>
   <si>
@@ -86,6 +83,204 @@
   </si>
   <si>
     <t>Cuerpo de Agua</t>
+  </si>
+  <si>
+    <t>Sistema Volcánico</t>
+  </si>
+  <si>
+    <t>Monitoreo Cuerpos Agua</t>
+  </si>
+  <si>
+    <t>Caracterización Biofísica</t>
+  </si>
+  <si>
+    <t>Monitoreo de Glaciares</t>
+  </si>
+  <si>
+    <t>Distribución Flora y Fauna</t>
+  </si>
+  <si>
+    <t>Contexto Sociodemográfico</t>
+  </si>
+  <si>
+    <t>Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>Economía y Desarrollo</t>
+  </si>
+  <si>
+    <t>Distancia a Servicios</t>
+  </si>
+  <si>
+    <t>Índices Espectrales</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Brief Comunal</t>
+  </si>
+  <si>
+    <t>Contexto Socioeconómico</t>
+  </si>
+  <si>
+    <t>Delincuencia</t>
+  </si>
+  <si>
+    <t>Espacios Culturales</t>
+  </si>
+  <si>
+    <t>Estadísticas Vitales</t>
+  </si>
+  <si>
+    <t>Gestión Municipal</t>
+  </si>
+  <si>
+    <t>Inmigrantes</t>
+  </si>
+  <si>
+    <t>Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Tránsito</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Incendios</t>
+  </si>
+  <si>
+    <t>Violencia contra la Mujer</t>
+  </si>
+  <si>
+    <t>Áreas Protegidas</t>
+  </si>
+  <si>
+    <t>Monitoreo Volcanes</t>
+  </si>
+  <si>
+    <t>Pueblos Indígenas</t>
+  </si>
+  <si>
+    <t>Elecciones</t>
+  </si>
+  <si>
+    <t>Caracterización Socioeconómica</t>
+  </si>
+  <si>
+    <t>Cooperación Internacional</t>
+  </si>
+  <si>
+    <t>Desastres Naturales</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>Gobernanza</t>
+  </si>
+  <si>
+    <t>Instrumentos Planificación Territorial</t>
+  </si>
+  <si>
+    <t>Recursos e Infraestructura</t>
+  </si>
+  <si>
+    <t>Transparencia</t>
+  </si>
+  <si>
+    <t>#F4B084</t>
+  </si>
+  <si>
+    <t>#65FF65</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#EBE600</t>
+  </si>
+  <si>
+    <t>#8B0026</t>
+  </si>
+  <si>
+    <t>#3FFD966</t>
+  </si>
+  <si>
+    <t>#FFA48F</t>
+  </si>
+  <si>
+    <t>#BF8F00</t>
+  </si>
+  <si>
+    <t>#3333FF</t>
+  </si>
+  <si>
+    <t>#A9A57C</t>
+  </si>
+  <si>
+    <t>#A0336A</t>
+  </si>
+  <si>
+    <t>#FFB7AB</t>
+  </si>
+  <si>
+    <t>#FF6019</t>
+  </si>
+  <si>
+    <t>#00FFFF</t>
+  </si>
+  <si>
+    <t>#627A84</t>
+  </si>
+  <si>
+    <t>#49A8F8</t>
+  </si>
+  <si>
+    <t>#DE52A7</t>
+  </si>
+  <si>
+    <t>#EC6394</t>
+  </si>
+  <si>
+    <t>#D6CCBB</t>
+  </si>
+  <si>
+    <t>#833C0C</t>
+  </si>
+  <si>
+    <t>#ED3552</t>
+  </si>
+  <si>
+    <t>#C27E89</t>
+  </si>
+  <si>
+    <t>#FF788D</t>
+  </si>
+  <si>
+    <t>#806000</t>
+  </si>
+  <si>
+    <t>#FFFF66</t>
+  </si>
+  <si>
+    <t>#8976FF</t>
+  </si>
+  <si>
+    <t>#D0D0D0</t>
+  </si>
+  <si>
+    <t>#95A39D</t>
+  </si>
+  <si>
+    <t>#FF00FF</t>
+  </si>
+  <si>
+    <t>#660066</t>
   </si>
 </sst>
 </file>
@@ -109,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +353,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF49A8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB7AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6019"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF627A84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCB385B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC27E89"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF788D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8976FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0336A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE52A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC6394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6CCBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A57C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA48F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B0026"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,11 +542,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,13 +609,130 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -217,6 +751,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{821FEC98-99C3-4279-B3A7-8A88319B157C}" name="Escala"/>
     <tableColumn id="2" xr3:uid="{3D8A2B42-7195-4467-9A19-AB3CCE20DD96}" name="Color"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E420964-87BE-48EA-970F-C8B9DA63F57E}" name="Contenido_Color" displayName="Contenido_Color" ref="E4:F39" totalsRowShown="0">
+  <autoFilter ref="E4:F39" xr:uid="{5E420964-87BE-48EA-970F-C8B9DA63F57E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A7A9FEF8-ED8F-4B65-88C1-A8CE86D21886}" name="Contenido"/>
+    <tableColumn id="2" xr3:uid="{931CF97C-9DC8-4E9F-A293-4FE88602F222}" name="Color" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,16 +1064,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138EC138-A75F-4E78-AE6D-D02FF11297C1}">
-  <dimension ref="B4:F11"/>
+  <dimension ref="B4:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -539,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -550,7 +1095,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -558,7 +1109,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -566,7 +1123,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -574,15 +1137,27 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -590,21 +1165,258 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/000 BASE GENERAL 2022/Colores.xlsx
+++ b/000 BASE GENERAL 2022/Colores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 BASE GENERAL 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138EEB14-0247-4AA3-889A-D8698614002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971B811-30D4-4BFC-B893-453151E49041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5772334-57CC-47E5-83C1-1A5061086F4D}"/>
   </bookViews>
@@ -734,6 +734,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBE600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1067,7 +1072,7 @@
   <dimension ref="B4:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/000 BASE GENERAL 2022/Colores.xlsx
+++ b/000 BASE GENERAL 2022/Colores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 BASE GENERAL 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971B811-30D4-4BFC-B893-453151E49041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147072BA-A68E-42E0-A7BB-297AA38D9099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5772334-57CC-47E5-83C1-1A5061086F4D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Escala</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>#660066</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>#33CC33</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,6 +723,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,6 +751,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CC33"/>
       <color rgb="FFEBE600"/>
     </mruColors>
   </colors>
@@ -762,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E420964-87BE-48EA-970F-C8B9DA63F57E}" name="Contenido_Color" displayName="Contenido_Color" ref="E4:F39" totalsRowShown="0">
-  <autoFilter ref="E4:F39" xr:uid="{5E420964-87BE-48EA-970F-C8B9DA63F57E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E420964-87BE-48EA-970F-C8B9DA63F57E}" name="Contenido_Color" displayName="Contenido_Color" ref="E4:F40" totalsRowShown="0">
+  <autoFilter ref="E4:F40" xr:uid="{5E420964-87BE-48EA-970F-C8B9DA63F57E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A7A9FEF8-ED8F-4B65-88C1-A8CE86D21886}" name="Contenido"/>
     <tableColumn id="2" xr3:uid="{931CF97C-9DC8-4E9F-A293-4FE88602F222}" name="Color" dataDxfId="0"/>
@@ -1069,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138EC138-A75F-4E78-AE6D-D02FF11297C1}">
-  <dimension ref="B4:F39"/>
+  <dimension ref="B4:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,6 +1433,14 @@
         <v>79</v>
       </c>
     </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/000 BASE GENERAL 2022/Colores.xlsx
+++ b/000 BASE GENERAL 2022/Colores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 BASE GENERAL 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147072BA-A68E-42E0-A7BB-297AA38D9099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF67839-231C-44E9-84F8-5F6C7153EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5772334-57CC-47E5-83C1-1A5061086F4D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
   <si>
     <t>Escala</t>
   </si>
@@ -196,9 +196,6 @@
     <t>#F4B084</t>
   </si>
   <si>
-    <t>#65FF65</t>
-  </si>
-  <si>
     <t>#FF0000</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>#8B0026</t>
   </si>
   <si>
-    <t>#3FFD966</t>
-  </si>
-  <si>
     <t>#FFA48F</t>
   </si>
   <si>
@@ -287,13 +281,55 @@
   </si>
   <si>
     <t>#33CC33</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>Biofísica</t>
+  </si>
+  <si>
+    <t>Clima</t>
+  </si>
+  <si>
+    <t>Gobierno</t>
+  </si>
+  <si>
+    <t>Gobiernos Locales</t>
+  </si>
+  <si>
+    <t>Gobiernos Regionales</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Riesgos</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Territorio</t>
+  </si>
+  <si>
+    <t>Transporte y tránsito</t>
+  </si>
+  <si>
+    <t>#FFD966</t>
+  </si>
+  <si>
+    <t>#006900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +345,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +589,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -596,11 +646,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,11 +829,102 @@
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -782,7 +974,18 @@
   <autoFilter ref="E4:F40" xr:uid="{5E420964-87BE-48EA-970F-C8B9DA63F57E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A7A9FEF8-ED8F-4B65-88C1-A8CE86D21886}" name="Contenido"/>
-    <tableColumn id="2" xr3:uid="{931CF97C-9DC8-4E9F-A293-4FE88602F222}" name="Color" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{931CF97C-9DC8-4E9F-A293-4FE88602F222}" name="Color" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3C93B53B-1AA0-481C-AD61-E7C8E81282FB}" name="Sectores_Color" displayName="Sectores_Color" ref="H4:I23" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="H4:I23" xr:uid="{3C93B53B-1AA0-481C-AD61-E7C8E81282FB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{894B5AC1-BC5F-463D-A5CA-A929124ACD48}" name="Sector"/>
+    <tableColumn id="2" xr3:uid="{A6A1C28F-7312-4791-A388-59241EE8B4ED}" name="Color"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1085,19 +1288,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138EC138-A75F-4E78-AE6D-D02FF11297C1}">
-  <dimension ref="B4:F40"/>
+  <dimension ref="B4:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1110,8 +1315,14 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1124,8 +1335,14 @@
       <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1138,8 +1355,14 @@
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1152,8 +1375,14 @@
       <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1164,10 +1393,16 @@
         <v>20</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1178,10 +1413,16 @@
         <v>21</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1192,10 +1433,16 @@
         <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1206,114 +1453,192 @@
         <v>23</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>39</v>
       </c>
@@ -1321,23 +1646,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>41</v>
       </c>
@@ -1353,28 +1678,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
@@ -1382,7 +1707,7 @@
         <v>45</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.3">
@@ -1390,7 +1715,7 @@
         <v>46</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.3">
@@ -1398,7 +1723,7 @@
         <v>47</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1731,7 @@
         <v>48</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.3">
@@ -1414,7 +1739,7 @@
         <v>49</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1747,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.3">
@@ -1430,22 +1755,23 @@
         <v>51</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>